--- a/Data Structure/LL/LinkedList.xlsx
+++ b/Data Structure/LL/LinkedList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/LL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED16E9E0-6098-204B-BD28-929FD6FFDFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C5817-4F7A-2345-A979-E8609F4B69DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16900" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="Searching" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Number</t>
   </si>
@@ -55,12 +55,94 @@
   <si>
     <t>Linked List Construction</t>
   </si>
+  <si>
+    <t>Remove Duplicates From Linked List</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: Because the nodes are in sorted order I only have to look at next node to check if there are duplicates.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Check if the next node value is same as current node value.
+If they are same then point the next pointer to the next but 1 value and so on.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>NOTE</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>: Will  always have a head pointer.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Create a node.
+Create a linked list with a head.
+Create nodes and join the nodes.
+1. Create.
+2. Insert
+    a. Front
+    b. After a node.
+    C. end
+3. Delete
+    a. Node
+    b. Position</t>
+    </r>
+  </si>
+  <si>
+    <t>Double Linked List Construction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +173,20 @@
       <b/>
       <sz val="48"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -127,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -146,6 +242,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,9 +566,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4A21D9-BFC5-D744-9210-5766C92121CA}">
   <dimension ref="A1:C300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,29 +613,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" s="3" customFormat="1" ht="103" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="302" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
@@ -1991,9 +2105,10 @@
       <c r="C300" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Structure/LL/LinkedList.xlsx
+++ b/Data Structure/LL/LinkedList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/LL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C5817-4F7A-2345-A979-E8609F4B69DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F95C5D-453A-3840-858A-FC8147D8CD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Number</t>
   </si>
@@ -137,6 +137,79 @@
   <si>
     <t>Double Linked List Construction</t>
   </si>
+  <si>
+    <t>19. Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>Create a node.
+Create a linked list with a head and a tail.
+Create nodes and join the nodes.
+1. Create.
+2. Insert
+    a. set head
+    b. set Tail.
+    C. neginning of the node
+    d. after a node.
+    E. at a position
+3. Delete
+    a. Node
+    b. Position</t>
+  </si>
+  <si>
+    <t>2. Add Two Numbers</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t># If the nodes generate carry add it along with the nodes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Add the 2 nodes of the linked list
+Check if they generate carry. (sum &gt;= 10)
+If they generate carry. Add them along with the nodes.
+Repeate if there is nodes present in either of the LL or if there is a Carry. Once both the nodes are None. Return
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2 Pointer  --  creating window of size n+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Create a 2 pointer. Distance between pointer 1 and pointer 2 should be n.
+Since index start with 0 distance should be n + 1
+move both the pointer as long as the right pointer next node is none. 
+Once none. Left pointers next node will be the node to remove. 
+Change the pointer.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,6 +304,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,10 +321,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,8 +643,8 @@
   <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,28 +655,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" ht="62" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -620,44 +696,58 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="302" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="326" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="162" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="163" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="9"/>
     </row>
-    <row r="10" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+    <row r="10" spans="1:3" ht="190" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>

--- a/Data Structure/LL/LinkedList.xlsx
+++ b/Data Structure/LL/LinkedList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/LL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F95C5D-453A-3840-858A-FC8147D8CD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA9C3A2-021C-8B44-A408-1741FA04DA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Number</t>
   </si>
@@ -43,11 +43,6 @@
   </si>
   <si>
     <t>Explanation</t>
-  </si>
-  <si>
-    <t>1. Come Up with a Brute Force Approach
-2. Always check for base case.
-3. Mostly recursion is used.</t>
   </si>
   <si>
     <t>Linked List</t>
@@ -208,6 +203,465 @@
 move both the pointer as long as the right pointer next node is none. 
 Once none. Left pointers next node will be the node to remove. 
 Change the pointer.</t>
+    </r>
+  </si>
+  <si>
+    <t>141. Linked List Cycle
+Return true of there is a cycle. Else false.</t>
+  </si>
+  <si>
+    <t>Find Loop:
+Return the node where there is a loop starting.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t># Tortise Pointers and Sets</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Method 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Using Set.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Method 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+start the 2 pointer . Fast pointer runnig at double speed. 
+If they ever collide. Then there is a cycle.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t># Tortise Pointers + Math formula and Sets</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Method 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Using Set.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Method 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Use 2 pointer with a Math Formula.
+first pointer will cover distance of d + p when it interacts with second pointer
+f = d + p -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eq 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+second pointer is moving 2x faster than first pointer
+s = 2x(f) = 2 x (d+p) = 2d + 2p -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eq 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+total distance t = d + p + r  -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eq 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+which also means
+second pointer s cover a distance of s = t + p  -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> eq 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>there fore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+t = s - p
+substituting eq 2
+t = 2d + 2p - p
+t = 2d + p -- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">eq 5
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+Now appending eq 5 in eq 3
+eq 3 =&gt; t = d + p + r
+2d + p = d + p + r
+ie</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> d = r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>206. Reverse Linked List</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3 Pointers Approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+prev = None. 
+# start with that because when I invert the LL, Last node should be pointing to None.
+Have 3 pointers . 
+1] Prev Node
+2] Cur Node
+3] Next Node.
+Keep changing the directions of cur Node</t>
+    </r>
+  </si>
+  <si>
+    <t>21. Merge Two Sorted Lists</t>
+  </si>
+  <si>
+    <t>Compare the 2 linked list and append it to a new Linked List</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Check where the Offset is. Then change the nodes there.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+# 1. calculate len of LL. --&gt; here Ill also get pointer to last node
+# 2. Check when the rotation occur --&gt; Calculate OffSet
+# 3. if offset is 0. no rotation takes place
+# When K is positive: 
+    Need to remove element from back ie -- ( length of LL - Offset )
+# when K is negative
+    Need to remove elements from front
+# 4. Traverse just before the position and change its pointer.</t>
+    </r>
+  </si>
+  <si>
+    <t>61. Rotate List.</t>
+  </si>
+  <si>
+    <t>1. Come Up with a Brute Force Approach
+2. Always check for base case.
+3. Mostly recursion is used.
+4. For every Rotation Problem. There will be. A offset ( After certain roatation the elements are back to original form.
+    Calculate Offest = abs(number of rotations) % length of element</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach 1:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Dictionary + Double Linked List.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Approach 2:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> OrderedDict.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ordered Dictionary = Hashmap + Linked List.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+There is a structure called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Ordered Dictionary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, it combines behind both </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hashmap and linked list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">. In Python this structure is called OrderedDict and in Java LinkedHashMap. </t>
     </r>
   </si>
 </sst>
@@ -643,8 +1097,8 @@
   <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,7 +1110,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -671,9 +1125,9 @@
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="140" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -694,10 +1148,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="326" customHeight="1" x14ac:dyDescent="0.2">
@@ -705,10 +1159,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="162" customHeight="1" x14ac:dyDescent="0.2">
@@ -716,10 +1170,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="163" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,10 +1186,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="198" customHeight="1" x14ac:dyDescent="0.2">
@@ -743,51 +1197,83 @@
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:3" ht="183" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="B12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="310" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>6</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="257" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="20" x14ac:dyDescent="0.2">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" ht="243" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="76" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="279" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
@@ -2195,10 +2681,11 @@
       <c r="C300" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C13:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Structure/LL/LinkedList.xlsx
+++ b/Data Structure/LL/LinkedList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamrathod/Documents/Study Material/DS/DataStructure-And-Algorithm/Data Structure/LL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA9C3A2-021C-8B44-A408-1741FA04DA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76801C28-C65E-D340-B7B8-600B4564AE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4E42177B-4881-CA45-8674-08098C02AC7A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Number</t>
   </si>
@@ -662,6 +662,154 @@
         <family val="1"/>
       </rPr>
       <t xml:space="preserve">. In Python this structure is called OrderedDict and in Java LinkedHashMap. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Steps: 
+	</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the linkedList.
+	2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reverse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the second half of LL.
+	3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Combine</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the LinkedList</t>
+    </r>
+  </si>
+  <si>
+    <t>Zip Linked List</t>
+  </si>
+  <si>
+    <t>Rearrange LinkedList</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Steps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">: 
+         1. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Create</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 3 linkedList. (Smaller than k, Equal to K, Larger than k).
+         2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Connect</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> the small LL to equal LL. And Connect the equal LL to Larger LL.</t>
     </r>
   </si>
 </sst>
@@ -1097,8 +1245,8 @@
   <dimension ref="A1:C300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <pane ySplit="5" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1267,7 +1415,9 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1275,15 +1425,27 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+    <row r="20" spans="1:3" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="136" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:3" ht="20" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
